--- a/static/data/Spond/Finance/u18s.xlsx
+++ b/static/data/Spond/Finance/u18s.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="165">
   <si>
     <t>2025/26 Player Membership (u18s) – 07.09.2025-31.07.2026</t>
   </si>
@@ -302,7 +302,10 @@
     <t>Muhammad Amsyar</t>
   </si>
   <si>
-    <t>Mohd Fauzi</t>
+    <t>Mohd Fauzi FU17</t>
+  </si>
+  <si>
+    <t>snippiesmunchescurry@gmail.com</t>
   </si>
   <si>
     <t>Suzi</t>
@@ -1131,19 +1134,21 @@
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1168,18 +1173,18 @@
         <v>40111.0</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -1191,44 +1196,46 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>48</v>
@@ -1249,26 +1256,26 @@
         <v>40022.0</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC8" s="2" t="s">
         <v>55</v>
@@ -1294,24 +1301,24 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1336,13 +1343,13 @@
         <v>39784.0</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1460,31 +1467,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>432.0</v>
@@ -1502,32 +1509,32 @@
         <v>40014.0</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="Z11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>55</v>
@@ -1545,32 +1552,32 @@
         <v>55</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1595,16 +1602,16 @@
         <v>40167.0</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1628,7 +1635,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>58</v>
@@ -1660,16 +1667,16 @@
         <v>39761.0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1786,28 +1793,28 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1832,28 +1839,28 @@
         <v>39855.0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>55</v>
